--- a/05_Entregable 3/maate_extra/DdV_20_MAATE_Rescates_9mayo2025.xlsx
+++ b/05_Entregable 3/maate_extra/DdV_20_MAATE_Rescates_9mayo2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco_F\!!Personal\Mio\1_WCS 2024\wcs\05_Entregable 3\maate_extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\05_Entregable 3\maate_extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="institucion_rescatista_Recopil" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="693">
   <si>
     <t>institucion_rescatista</t>
   </si>
@@ -2097,6 +2097,15 @@
   </si>
   <si>
     <t>Tungurahua</t>
+  </si>
+  <si>
+    <t>Categoría 2025</t>
+  </si>
+  <si>
+    <t>No declarado</t>
+  </si>
+  <si>
+    <t>Perdido</t>
   </si>
 </sst>
 </file>
@@ -2112,12 +2121,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2132,8 +2153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2430,16 +2453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2447,628 +2472,711 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>209</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
         <v>363</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
         <v>342</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
         <v>239</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
         <v>310</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
         <v>107</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67">
         <v>281</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>216</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -3079,16 +3187,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -3096,36 +3206,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
       <c r="B2">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
       <c r="B3">
         <v>2678</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
       <c r="B4">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>223</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -3136,13 +3261,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3150,23 +3277,32 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
       <c r="B2">
         <v>3415</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
       <c r="B3">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3177,16 +3313,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -3194,10 +3332,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3205,7 +3346,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -3213,7 +3354,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -3221,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -3229,7 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -3237,7 +3378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -3245,7 +3386,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -3253,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -3261,7 +3402,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -7478,10 +7619,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7489,7 +7630,7 @@
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>619</v>
       </c>
@@ -7497,268 +7638,306 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>620</v>
       </c>
       <c r="B2">
         <v>1428</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>621</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>622</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>623</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>624</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>625</v>
       </c>
       <c r="B7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>626</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>627</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>628</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>629</v>
       </c>
       <c r="B11">
         <v>1145</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>630</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>631</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>632</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>633</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>634</v>
       </c>
       <c r="B16">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>635</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>636</v>
       </c>
       <c r="B18">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>637</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>638</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>639</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>640</v>
       </c>
       <c r="B22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>641</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>642</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>643</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>644</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>645</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>646</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>647</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>648</v>
       </c>
       <c r="B30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>649</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>650</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>651</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>493</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -7769,16 +7948,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>652</v>
       </c>
@@ -7786,132 +7967,183 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>653</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>654</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>655</v>
       </c>
       <c r="B4">
         <v>2064</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>656</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>657</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>658</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>659</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>660</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>631</v>
       </c>
       <c r="B10">
         <v>446</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>661</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>641</v>
       </c>
       <c r="B12">
         <v>689</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>662</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>663</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>664</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>665</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>207</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -7922,16 +8154,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>666</v>
       </c>
@@ -7939,124 +8173,164 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>667</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>668</v>
       </c>
       <c r="B3">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>669</v>
       </c>
       <c r="B4">
         <v>1833</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>670</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>671</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>672</v>
       </c>
       <c r="B7">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>673</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>674</v>
       </c>
       <c r="B9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>675</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>676</v>
       </c>
       <c r="B11">
         <v>1288</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>677</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>678</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>679</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8341,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,7 +8352,7 @@
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>680</v>
       </c>
@@ -8086,84 +8360,117 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>681</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>682</v>
       </c>
       <c r="B3">
         <v>211</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>683</v>
       </c>
       <c r="B4">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>684</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>685</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>686</v>
       </c>
       <c r="B7">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>687</v>
       </c>
       <c r="B8">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>688</v>
       </c>
       <c r="B9">
         <v>1156</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>689</v>
       </c>
       <c r="B10">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1703</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
